--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6EAFA-3360-422A-882C-AEDCF273CC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39AB54-9B3A-479A-BED9-7C441AFA1E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2925" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39AB54-9B3A-479A-BED9-7C441AFA1E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42D7E4-15F3-4A47-8380-20D005A392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
     <sheet name="Facility" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +174,126 @@
   </si>
   <si>
     <t>Pyramid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruits, wheat, rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cow, sheep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish, pearl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+inspi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+armor Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 fruits,wheat &amp; +2 rice every 2 farms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 cow &amp; +1 +1 sheep every 2 pasture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 Fish &amp; +1 gold every 2 fisherboat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2 gold earned by pearl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 prod/turn every 2 stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 inspi/turn every 2 library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 armor swordman every 2 mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 gold/Turn every 2 market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide production every 20 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bow &amp; arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lighthouse base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyramid site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>library site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordman-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swardman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine mountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +341,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,13 +501,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,13 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -672,28 +814,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -701,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -709,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -717,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -725,15 +867,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -741,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -749,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -757,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -765,37 +915,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -803,12 +953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -816,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -824,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -832,14 +982,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -851,74 +1093,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3" style="14" customWidth="1"/>
-    <col min="3" max="3" width="116.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="3" style="13" customWidth="1"/>
+    <col min="3" max="3" width="116.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42D7E4-15F3-4A47-8380-20D005A392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3FE33-A4D4-462C-9194-C5056B879D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cow, sheep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fish, pearl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+2 cow &amp; +1 +1 sheep every 2 pasture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+1 Fish &amp; +1 gold every 2 fisherboat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +286,14 @@
   </si>
   <si>
     <t>horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cow, sheep, horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 cow &amp; +1 +1 sheep &amp; +1 horse every 2 pasture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -1002,17 +1002,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="7">
         <v>5</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="7">
         <v>4</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="7">
         <v>5</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="7">
         <v>4</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
@@ -1060,17 +1060,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="7">
         <v>3</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="7">
         <v>4</v>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
@@ -1125,10 +1125,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,10 +1180,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3FE33-A4D4-462C-9194-C5056B879D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D0A72-6EF7-43F1-AC91-CE7DD575E944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,7 +514,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -814,28 +814,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
         <v>62</v>
       </c>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -915,37 +915,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -953,12 +953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -982,17 +982,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -1000,17 +1000,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -1034,15 +1034,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -1058,17 +1058,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="17" t="s">
         <v>60</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>61</v>
       </c>
@@ -1099,7 +1099,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1108,7 +1108,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="16"/>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D0A72-6EF7-43F1-AC91-CE7DD575E944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8A5DE-1A93-490B-95A3-0382DB54B60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +292,22 @@
   </si>
   <si>
     <t>+2 cow &amp; +1 +1 sheep &amp; +1 horse every 2 pasture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient loot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special ancient loot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTLER KIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTLERs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1082,6 +1096,29 @@
       </c>
       <c r="B40" s="7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8A5DE-1A93-490B-95A3-0382DB54B60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E0587-6C6A-4862-B955-19840EA29217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13140" yWindow="4260" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -199,34 +199,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+1 fruits,wheat &amp; +2 rice every 2 farms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 Fish &amp; +1 gold every 2 fisherboat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x2 gold earned by pearl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+1 prod/turn every 2 stable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 inspi/turn every 2 library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 armor swordman every 2 mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 gold/Turn every 2 market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>provide production every 20 turns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+2 cow &amp; +1 +1 sheep &amp; +1 horse every 2 pasture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ancient loot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +280,34 @@
   </si>
   <si>
     <t>SETTLERs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 fruits,wheat &amp; +2 rice every farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 cow &amp; +2 +2 sheep &amp; +2 horse every 2 pastures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 Fish &amp; +1 gold every fisherboat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 prod/turn every stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 inspi/turn every library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 armor ancient troops every mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 gold/Turn every market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,11 +815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -828,28 +828,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
@@ -889,15 +889,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -921,45 +921,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -967,12 +967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -980,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -996,129 +996,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B39" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B40" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1133,10 +1133,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1145,103 +1145,103 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E0587-6C6A-4862-B955-19840EA29217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B45DA2-FF54-4D26-A009-D08FCF802512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="3510" windowWidth="24195" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -283,31 +283,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+1 fruits,wheat &amp; +2 rice every farm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+3 cow &amp; +2 +2 sheep &amp; +2 horse every 2 pastures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 Fish &amp; +1 gold every fisherboat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 prod/turn every stable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 inspi/turn every library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 armor ancient troops every mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1 gold/Turn every market</t>
+    <t>1/2/3/4/5 farms, +1 fruits,wheat &amp; +2 rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3/5/7/9 Pastures, +3 cow &amp; +2 +2 sheep &amp; +2 horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~9 fisherboats, +1 Fish &amp; +1 PEARL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Stables, +1 Labour/turn &amp; +1 horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Libraries, +1 inspi/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 MINES, +1 ancient troops armour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Markets, +1 gold/turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,11 +815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -828,28 +828,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -929,37 +929,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -967,12 +967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -980,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -996,17 +996,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1014,17 +1014,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1072,17 +1072,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="17" t="s">
         <v>54</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -1098,17 +1098,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
@@ -1132,11 +1132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1145,7 +1145,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="16"/>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B45DA2-FF54-4D26-A009-D08FCF802512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEAE401-9927-491C-9D89-B6E23174C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3510" windowWidth="24195" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
     <sheet name="Facility" sheetId="2" r:id="rId2"/>
+    <sheet name="traits" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +309,218 @@
   </si>
   <si>
     <t>1/2/3/4/5 Markets, +1 gold/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarazm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase the cap of pasture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea peoples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triumvirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient troop +3 damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autocracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 gold/turn, +1 labour/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cITY of URUK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New settlements start with 50 foods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the merchants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 gold/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The prophets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 inspiration/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Labourers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 labour/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient ruins becomes common symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoenicia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient troop +1 damage, Trainee and weapons cost 1 gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold/lab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killing barbarians provides +3 inspiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>babylon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provides 3 boatframes when sailing is studied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medieval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feudalism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 food to fruits, wheat, rice, cow, sheep and horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theocracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maritime republic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all symbol from trade cost 2 less gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reform movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killing barbarians provides +5 inspiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercantilism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KiLLing barbarians provides +10 gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monastery movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm 1/2/3/4/5 -&gt; 1~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE PROPHETS II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE LABOURERS II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE MERChANTS II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 gold/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 labour/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercenary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops can be trained with 10 golds when no production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 inspiration/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediately provides 2 productions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +567,19 @@
       <name val="Joystix Monospace"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Joystix Monospace"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Joystix Monospace"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +756,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -813,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -882,11 +1117,11 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1120,6 +1355,9 @@
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1132,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1249,4 +1487,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF50FB0-F3B4-435A-96C3-2003385536C8}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEAE401-9927-491C-9D89-B6E23174C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A4EAD-BDEB-4712-A8A0-2CD4620D24D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,14 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ancient loot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special ancient loot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SETTLER KIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,6 +513,94 @@
   </si>
   <si>
     <t>immediately provides 2 productions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trebuchet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trebuchet blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trebuchet-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taj Mahal Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheomseongdae site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order of chivalry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>captive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food chest+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settlers' kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settlers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,7 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +837,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,43 +1128,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
     <col min="4" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1132,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1164,37 +1244,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1202,12 +1282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1231,17 +1311,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1249,17 +1329,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -1267,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -1283,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1299,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1307,17 +1387,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>54</v>
       </c>
@@ -1325,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -1333,36 +1413,176 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="20"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1374,7 +1594,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1383,85 +1603,85 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1470,7 +1690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
   </sheetData>
@@ -1493,11 +1713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF50FB0-F3B4-435A-96C3-2003385536C8}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
@@ -1505,321 +1725,321 @@
     <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A4EAD-BDEB-4712-A8A0-2CD4620D24D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0C063-DE5B-413C-92A0-DDD2855FD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,14 +265,6 @@
   </si>
   <si>
     <t>cow, sheep, horse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTLER KIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTLERs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -659,7 +651,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1398,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
@@ -1423,159 +1406,146 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B50" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>59</v>
+      <c r="A51" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="7">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="7">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="7">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="7">
-        <v>3</v>
-      </c>
-    </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="7">
-        <v>5</v>
-      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="7">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="7">
+      <c r="B63" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1609,7 +1579,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
@@ -1620,7 +1590,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>57</v>
@@ -1631,7 +1601,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
@@ -1642,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
@@ -1653,7 +1623,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
@@ -1664,7 +1634,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
@@ -1675,7 +1645,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
@@ -1727,319 +1697,319 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0C063-DE5B-413C-92A0-DDD2855FD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532E9B3-CB16-470C-920E-91CC7CBAC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="3315" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
     <sheet name="Facility" sheetId="2" r:id="rId2"/>
     <sheet name="traits" sheetId="3" r:id="rId3"/>
+    <sheet name="figure" sheetId="5" r:id="rId4"/>
+    <sheet name="Stage" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,34 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/2/3/4/5 farms, +1 fruits,wheat &amp; +2 rice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3/5/7/9 Pastures, +3 cow &amp; +2 +2 sheep &amp; +2 horse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~9 fisherboats, +1 Fish &amp; +1 PEARL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3/4/5 Stables, +1 Labour/turn &amp; +1 horse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3/4/5 Libraries, +1 inspi/turn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3/4/5 MINES, +1 ancient troops armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3/4/5 Markets, +1 gold/turn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ancient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +567,214 @@
   </si>
   <si>
     <t>Settlers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taj mahal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheomseongdae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide figure every 10 telescopes interactions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5 chances of friendly visits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Stables, +1 Labour/turn &amp; +1 horse labour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 farms, +1 fruits,wheat &amp; +2 rice (Fruits,wheat &amp; rice cost 1 less gold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Pastures, +2 cow &amp; +2 +2 sheep &amp; +2 horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 fisherboats, +1 Fish &amp; +1 PEARL (FISH and pearl cost half gold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Libraries, +1 inspi/turn (Instantly provide 10 inspi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3 MINES, +1 ancient troops armour (ALL era troops +1 armour)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Markets, +1 gold/turN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Universities, +1 figure point/turn (Free figure)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 banks, +1 gold/turn (All symbols cost 1 less gold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 Presses, +1 inspi/turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/4/5 +1 labour/turn (3 productions provided)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pericles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socrates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aristoteles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexander the great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venizelos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippocrates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archimedes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 inspiration / interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 inspiration / turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build library site nearby into Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leonidas I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 food, +2 gold, +2 Labour / interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(+1)/15(+2). Provide 2 settlements when destroyed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(+1)/10(+2). provided with 2 warriors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 labour &amp; +1 inspi / interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 damage to nearby troops. +1 Inspi / interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1 inspi &amp; +1 armour to nearby troops.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYTHAGORAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERICLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCRATES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLATO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISTOTELES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALEXANDER THE GREAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENIZELOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEONIDAS i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hippocrates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20 inspiration when pythagoras is on slot 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,7 +833,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,9 +1012,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1111,13 +1302,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -1126,28 +1317,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1195,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1227,37 +1418,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1265,12 +1456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1278,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1294,17 +1485,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1312,17 +1503,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -1330,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -1338,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1362,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1370,17 +1561,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="17" t="s">
         <v>54</v>
       </c>
@@ -1388,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -1396,157 +1587,207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="B50" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B51" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B55" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B56" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B57" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B58" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B59" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B60" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B63" s="7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="21" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1558,13 +1799,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1573,85 +1814,85 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1669,8 +1910,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1687,7 +1975,7 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
@@ -1695,321 +1983,480 @@
     <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F9C50-356B-4925-B232-59748EAF3772}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEF2575-79D4-4D91-9DEE-BFD1029DDD57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532E9B3-CB16-470C-920E-91CC7CBAC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70A296-3D69-4EDD-85CF-F43AC60AE312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="3315" windowWidth="24195" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Increase the cap of pasture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sea peoples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>farm 1/2/3/4/5 -&gt; 1~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>THE PROPHETS II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Provide figure every 10 telescopes interactions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x5 chances of friendly visits.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,6 +763,18 @@
   </si>
   <si>
     <t>+20 inspiration when pythagoras is on slot 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep becomes common symbol when 5 pastures are built</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately provides 3 food chests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide figure every 10 telescopes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,7 +1017,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1304,11 +1304,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -1317,28 +1317,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1418,37 +1418,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1456,12 +1456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1485,17 +1485,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1503,17 +1503,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1561,17 +1561,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -1587,207 +1587,207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="B63" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="21" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="21" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="21" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="21" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="21" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1802,10 +1802,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1814,85 +1814,85 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1910,54 +1910,54 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +1972,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
@@ -1983,7 +1983,7 @@
     <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>58</v>
       </c>
@@ -1991,319 +1991,319 @@
         <v>59</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2312,10 +2312,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
@@ -2324,117 +2324,117 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+      <c r="C9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2449,14 +2449,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Symbols.xlsx
+++ b/Symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Desktop\Github Projects\Humankind-in-a-nutshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Documents\GameMakerStudio2\Humankind in a nutshell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70A296-3D69-4EDD-85CF-F43AC60AE312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3091BF4-EB61-4871-AAB7-BCE928CACEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="3315" windowWidth="24195" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
@@ -590,10 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x5 chances of friendly visits.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/2/3/4/5 Stables, +1 Labour/turn &amp; +1 horse labour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,6 +771,10 @@
   </si>
   <si>
     <t>Provide figure every 10 telescopes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 figure point &amp; +1 gold/turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,7 +1017,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1304,11 +1304,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
@@ -1317,28 +1317,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1418,37 +1418,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1456,12 +1456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1485,17 +1485,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1503,17 +1503,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1561,17 +1561,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="17" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>129</v>
       </c>
@@ -1595,12 +1595,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
         <v>123</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>126</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>102</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>124</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>109</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="17" t="s">
         <v>110</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
@@ -1664,17 +1664,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="18" t="s">
         <v>114</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>115</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>116</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="17" t="s">
         <v>117</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="18" t="s">
         <v>118</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
@@ -1722,17 +1722,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>122</v>
       </c>
@@ -1740,54 +1740,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1801,11 +1801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E99AC-497C-4C59-ADCF-56E2ECC14060}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3" style="13" customWidth="1"/>
@@ -1814,85 +1814,85 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1910,54 +1910,54 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1971,11 +1971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF50FB0-F3B4-435A-96C3-2003385536C8}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
@@ -1983,7 +1983,7 @@
     <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>58</v>
       </c>
@@ -1991,13 +1991,13 @@
         <v>59</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
         <v>58</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
         <v>58</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="19" t="s">
         <v>58</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="19" t="s">
         <v>58</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>58</v>
       </c>
@@ -2125,27 +2125,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="19" t="s">
         <v>85</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="19" t="s">
         <v>85</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="19" t="s">
         <v>85</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="19" t="s">
         <v>85</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="19" t="s">
         <v>85</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="19" t="s">
         <v>85</v>
       </c>
@@ -2223,13 +2223,13 @@
         <v>95</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="19" t="s">
         <v>85</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="19" t="s">
         <v>85</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="19" t="s">
         <v>85</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="19" t="s">
         <v>85</v>
       </c>
@@ -2285,17 +2285,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="19" t="s">
         <v>85</v>
       </c>
@@ -2315,7 +2315,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
@@ -2324,117 +2324,117 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2449,12 +2449,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>131</v>
       </c>
